--- a/Excel/Chroma.xlsx
+++ b/Excel/Chroma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\VirtualBox VMs\SciViews Box 2020\shared\projects\TP-Bioch-BAB2-Q1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AB3827-BFDF-4178-8ECD-89FDBBC80026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD3523F-B691-4977-9EE4-3379ADAF5CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15075" yWindow="5355" windowWidth="21600" windowHeight="11385" xr2:uid="{58E2A8D9-AE62-4847-B1C5-3548FF4B9A82}"/>
+    <workbookView xWindow="18870" yWindow="4755" windowWidth="18480" windowHeight="10545" xr2:uid="{58E2A8D9-AE62-4847-B1C5-3548FF4B9A82}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,22 +39,22 @@
     <t>Hémoglobine</t>
   </si>
   <si>
-    <t>VéluG50</t>
-  </si>
-  <si>
-    <t>VéluG100</t>
-  </si>
-  <si>
     <t>MMprot</t>
-  </si>
-  <si>
-    <t>Protéines</t>
   </si>
   <si>
     <t>Blue dextran</t>
   </si>
   <si>
     <t>Ferycianine de K</t>
+  </si>
+  <si>
+    <t>veluG50</t>
+  </si>
+  <si>
+    <t>veluG100</t>
+  </si>
+  <si>
+    <t>Molécules</t>
   </si>
 </sst>
 </file>
@@ -518,9 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181B5683-18CE-46BE-A330-2609E2BA2585}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -529,22 +527,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>2000000</v>
@@ -574,7 +572,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>329</v>
